--- a/数据整理/stocks/港股/01801-信达生物.xlsx
+++ b/数据整理/stocks/港股/01801-信达生物.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,832 +512,1132 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>79.95</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.59</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0074</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7950</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根中国生物医药混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1148</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0375</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8618</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6848</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6355</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4761</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4080</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4033</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3321</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>009665</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>汇添富医疗积极成长一年持有期混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>79.95</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>4.59</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3158</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2809</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2625</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>72.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国消费升级混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006796</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国消费升级混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>91.98</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>470888</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富香港优势精选混合 (QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>83.17</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008972</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>90.63</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>2.21</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160922</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008075</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商核心优选股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008076</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商核心优选股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008294</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>朱雀企业优胜股票A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>90.22</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008295</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>朱雀企业优胜股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>90.22</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004996</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501303</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010141</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>朱雀企业优选股票A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>82.58</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010142</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>朱雀企业优选股票C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>82.58</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008061</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>惠升惠新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008062</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>惠升惠新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008418</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>惠升惠泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>72.58</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008419</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>惠升惠泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>72.58</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005228</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>汇添富港股通专注成长混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>86.36</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006364</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商丰韵混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>006365</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>招商丰韵混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>007493</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>朱雀产业臻选混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>79.51</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007494</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>朱雀产业臻选混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>79.51</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>007880</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>朱雀产业智选混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>77.63</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>007881</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>朱雀产业智选混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>77.63</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001984</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>上投摩根中国生物医药混合（QDII）</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>82.19</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>008531</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>惠升惠民混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>80.25</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>008532</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>惠升惠民混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>80.25</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>008655</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>招商科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>008656</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>招商科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1337,7 +1647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1358,15 +1668,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1378,25 +1698,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001764</t>
+          <t>007493</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发沪港深新机遇股票</t>
+          <t>朱雀产业臻选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.71</t>
+          <t>77.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3437</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1416,15 +1746,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.91</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.83</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010024</t>
+          <t>010141</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发沪港深新起点股票C</t>
+          <t>朱雀企业优选股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.91</t>
+          <t>61.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7117</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011189</t>
+          <t>009664</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信智汇优选一年持有期混合（MOM）</t>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>43.40</t>
+          <t>66.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3898</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005701</t>
+          <t>005777</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根香港精选港股通混合</t>
+          <t>广发科技动力股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>83.34</t>
+          <t>34.39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6645</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005777</t>
+          <t>010110</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发科技动力股票</t>
+          <t>广发医药健康混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.16</t>
+          <t>41.59</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6511</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005783</t>
+          <t>010591</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>创金合信汇益纯债一年定期开放债券C</t>
+          <t>富国中国中小盘混合(QDII)美元</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.16</t>
+          <t>55.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2774</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005785</t>
+          <t>100061</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创金合信汇誉纯债六个月定期开放债券C</t>
+          <t>富国中国中小盘混合(QDII)人民币</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.16</t>
+          <t>55.54</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2774</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1612,15 +2012,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>55.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>44.42</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2.22</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2283</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1630,25 +2040,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009865</t>
+          <t>001764</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商景气优选股票C</t>
+          <t>广发沪港深新机遇股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>44.42</t>
+          <t>30.40</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1886</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1658,25 +2078,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>262001</t>
+          <t>010161</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>广发瑞安精选股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>85.28</t>
+          <t>24.11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0440</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1686,25 +2116,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006364</t>
+          <t>007494</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商丰韵混合A</t>
+          <t>朱雀产业臻选混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>70.27</t>
+          <t>23.94</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0318</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1714,25 +2154,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006365</t>
+          <t>010922</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>招商丰韵混合C</t>
+          <t>朱雀匠心一年持有期混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>70.27</t>
+          <t>22.44</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9851</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010110</t>
+          <t>008294</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发医药健康混合A</t>
+          <t>朱雀企业优胜股票A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>21.01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9181</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010111</t>
+          <t>008284</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广发医药健康混合C</t>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9056</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010141</t>
+          <t>008285</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>朱雀企业优选股票A</t>
+          <t>易方达全球医药行业混合（QDII）美元</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9056</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010142</t>
+          <t>001984</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>朱雀企业优选股票C</t>
+          <t>上投摩根中国生物医药混合（QDII）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>15.68</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8655</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1854,25 +2344,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010161</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广发瑞安精选股票A</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>89.28</t>
+          <t>18.62</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8044</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1882,25 +2382,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010162</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广发瑞安精选股票C</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>89.28</t>
+          <t>18.62</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8044</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010405</t>
+          <t>010654</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>惠升医药健康6个月持有期混合</t>
+          <t>天弘医药创新混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>34.83</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6514</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>501021</t>
+          <t>010405</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+          <t>惠升医药健康6个月持有期混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>21.96</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5248</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1966,25 +2496,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>006127</t>
+          <t>010111</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+          <t>广发医药健康混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>11.88</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4716</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010591</t>
+          <t>011189</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>富国中国中小盘混合(QDII)美元</t>
+          <t>建信智汇优选一年持有期混合（MOM）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>78.93</t>
+          <t>26.31</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
+          <t>43.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4367</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>501303</t>
+          <t>007880</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+          <t>朱雀产业智选混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4314</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>004996</t>
+          <t>010142</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+          <t>朱雀企业优选股票C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>3</v>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4304</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>010644</t>
+          <t>008655</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>富国全球健康生活主题混合（QDII）人民币</t>
+          <t>招商科技创新混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>3</v>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4018</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>010645</t>
+          <t>009865</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>富国全球健康生活主题混合（QDII）美元</t>
+          <t>招商景气优选股票C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>15.62</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>3</v>
+          <t>44.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3468</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>010654</t>
+          <t>010644</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天弘医药创新混合A</t>
+          <t>富国全球健康生活主题混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>88.02</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>8.34</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3305</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>010655</t>
+          <t>010645</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天弘医药创新混合C</t>
+          <t>富国全球健康生活主题混合（QDII）美元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>88.02</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>8.34</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3305</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>006364</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>招商丰韵混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>85.28</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>9</v>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3044</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>010922</t>
+          <t>010024</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>朱雀匠心一年持有期混合</t>
+          <t>广发沪港深新起点股票C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>85.26</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>7</v>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2907</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>007493</t>
+          <t>009665</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>朱雀产业臻选混合A</t>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>90.09</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>7</v>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>007494</t>
+          <t>501021</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>朱雀产业臻选混合C</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>90.09</t>
+          <t>12.23</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>7</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>100061</t>
+          <t>010655</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>富国中国中小盘混合(QDII)人民币</t>
+          <t>天弘医药创新混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>78.93</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>10</v>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>001984</t>
+          <t>008531</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>上投摩根中国生物医药混合（QDII）</t>
+          <t>惠升惠民混合A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>63.75</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>4</v>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>160922</t>
+          <t>008295</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+          <t>朱雀企业优胜股票C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>161620</t>
+          <t>007881</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>融通核心价值混合（QDII）</t>
+          <t>朱雀产业智选混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>71.45</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>10</v>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>008655</t>
+          <t>006365</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>招商科技创新混合A</t>
+          <t>招商丰韵混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>8.64</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>1</v>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>008656</t>
+          <t>010162</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>招商科技创新混合C</t>
+          <t>广发瑞安精选股票C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>8.64</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>1</v>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>007880</t>
+          <t>008656</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>朱雀产业智选混合A</t>
+          <t>招商科技创新混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>91.14</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>8</v>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>007881</t>
+          <t>008532</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>朱雀产业智选混合C</t>
+          <t>惠升惠民混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>91.14</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>8</v>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>008284</t>
+          <t>161620</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>易方达全球医药行业混合（QDII）人民币</t>
+          <t>融通核心价值混合（QDII）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>4</v>
+          <t>71.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -2554,26 +3294,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>008285</t>
+          <t>005701</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>易方达全球医药行业混合（QDII）美元</t>
+          <t>上投摩根香港精选港股通混合</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>4</v>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -2582,26 +3332,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>008294</t>
+          <t>006127</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>朱雀企业优胜股票A</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>89.72</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>8</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -2610,26 +3370,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>008295</t>
+          <t>501303</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>朱雀企业优胜股票C</t>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>89.72</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>8</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2638,26 +3408,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>008531</t>
+          <t>004996</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>惠升惠民混合A</t>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>72.99</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>10</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -2666,26 +3446,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>008532</t>
+          <t>160922</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>惠升惠民混合C</t>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>72.99</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>10</v>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2694,26 +3484,30 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>009664</t>
+          <t>005783</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>汇添富医疗积极成长一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>79.42</t>
-        </is>
-      </c>
+          <t>创金合信汇益纯债一年定期开放债券C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>9</v>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -2722,26 +3516,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>009665</t>
+          <t>005785</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>汇添富医疗积极成长一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>79.42</t>
-        </is>
-      </c>
+          <t>创金合信汇誉纯债六个月定期开放债券C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>9</v>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01801-信达生物.xlsx
+++ b/数据整理/stocks/港股/01801-信达生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3492,7 +3493,6 @@
           <t>创金合信汇益纯债一年定期开放债券C</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
           <t>90.16</t>
@@ -3524,7 +3524,6 @@
           <t>创金合信汇誉纯债六个月定期开放债券C</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>90.16</t>
@@ -3540,6 +3539,2000 @@
       </c>
       <c r="H50" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4159</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4020</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8179</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5122</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8301</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5863</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5348</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3426</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008284</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0558</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008285</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0558</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>41.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8790</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8381</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001984</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根中国生物医药混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7081</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011189</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信智汇优选一年持有期混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>27.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>48.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6805</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6511</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6511</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5517</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>63.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5435</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4842</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4766</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4740</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3646</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3541</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3339</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3339</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3339</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3226</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010644</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3056</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010645</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3056</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2659</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01801-信达生物.xlsx
+++ b/数据整理/stocks/港股/01801-信达生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5538,4 +5539,1504 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2003</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7838</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7661</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7474</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9400</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8954</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>60.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7435</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008284</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3721</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008285</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3721</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2475</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>51.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2277</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2104</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0057</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8628</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011189</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信智汇优选一年持有期混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>49.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5679</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5133</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4670</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4311</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4113</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3528</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2964</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2717</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2717</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2717</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2288</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2180</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01801-信达生物.xlsx
+++ b/数据整理/stocks/港股/01801-信达生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7039,4 +7040,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01801-信达生物.xlsx
+++ b/数据整理/stocks/港股/01801-信达生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7048,7 +7049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7059,17 +7060,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7079,14 +7100,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.96</v>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8634</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -7095,14 +7138,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>51</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33.61</v>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8100</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -7111,14 +7176,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>49</v>
-      </c>
-      <c r="D4" t="n">
-        <v>34.59</v>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3095</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -7127,13 +7214,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1490</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9563</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3149</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2860</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2217</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>30</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>12.77</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01801-信达生物.xlsx
+++ b/数据整理/stocks/港股/01801-信达生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7561,7 +7562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7572,17 +7573,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7592,14 +7613,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.52</v>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0423</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -7608,14 +7651,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32.96</v>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9678</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -7624,14 +7689,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>51</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33.61</v>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9550</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -7640,14 +7727,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>49</v>
-      </c>
-      <c r="D5" t="n">
-        <v>34.59</v>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6952</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -7656,13 +7765,585 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2049</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>49</v>
+      </c>
+      <c r="D6" t="n">
+        <v>34.59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>30</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>12.77</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01801-信达生物.xlsx
+++ b/数据整理/stocks/港股/01801-信达生物.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8226,7 +8227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8237,17 +8238,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8257,14 +8278,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.94</v>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9890</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -8273,14 +8316,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.52</v>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0899</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -8289,14 +8354,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32.96</v>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7800</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -8305,14 +8392,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>51</v>
-      </c>
-      <c r="D5" t="n">
-        <v>33.61</v>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0114</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -8321,14 +8430,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>49</v>
-      </c>
-      <c r="D6" t="n">
-        <v>34.59</v>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9917</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -8337,13 +8468,753 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8921</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8699</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7724</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5236</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012884</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5236</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3105</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2118</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>51</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>49</v>
+      </c>
+      <c r="D7" t="n">
+        <v>34.59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>30</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>12.77</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01801-信达生物.xlsx
+++ b/数据整理/stocks/港股/01801-信达生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>13.54</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>4.94</v>
+        <v>13.54</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>11.52</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>32.96</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>33.61</v>
+        <v>32.96</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" t="n">
-        <v>34.59</v>
+        <v>33.61</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>49</v>
+      </c>
+      <c r="D8" t="n">
+        <v>34.59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>30</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>12.77</v>
       </c>
     </row>
@@ -666,22 +683,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>60.14</t>
+          <t>44.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.78</t>
+          <t>99.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9890</t>
+          <t>2.0240</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -704,22 +721,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39.96</t>
+          <t>25.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>85.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.0899</t>
+          <t>1.1842</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -742,26 +759,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36.93</t>
+          <t>31.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.06</t>
+          <t>84.61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7800</t>
+          <t>0.9246</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009896</t>
+          <t>009993</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发港股通成长精选股票A</t>
+          <t>嘉实前沿创新混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.43</t>
+          <t>14.33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.34</t>
+          <t>89.66</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0114</t>
+          <t>0.5761</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +835,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.07</t>
+          <t>16.27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.95</t>
+          <t>84.59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9917</t>
+          <t>0.5662</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009993</t>
+          <t>010388</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实前沿创新混合</t>
+          <t>易方达医药生物股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.63</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.75</t>
+          <t>84.59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8921</t>
+          <t>0.1677</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005777</t>
+          <t>012826</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发科技动力股票</t>
+          <t>工银聚宁9个月持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>26.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.8699</t>
+          <t>0.1203</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007343</t>
+          <t>513700</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实科技创新混合</t>
+          <t>鹏华中证港股通医药卫生综合ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16.54</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.88</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.7724</t>
+          <t>0.1122</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>160322</t>
+          <t>007718</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏港股通精选股票(LOF)</t>
+          <t>中银创新医疗混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17.75</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>85.87</t>
+          <t>92.35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.5236</t>
+          <t>0.1055</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>012884</t>
+          <t>159892</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏港股通精选股票(LOF) C</t>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>17.75</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>85.87</t>
+          <t>99.13</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.5236</t>
+          <t>0.0798</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009897</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发港股通成长精选股票C</t>
+          <t>广发中证香港创新药（QDII-ETF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>85.34</t>
+          <t>98.58</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3105</t>
+          <t>0.0777</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1074,32 +1091,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010388</t>
+          <t>513280</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>易方达医药生物股票C</t>
+          <t>汇添富恒生香港上市生物科技ETF（QDII）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>86.95</t>
+          <t>100.14</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2118</t>
+          <t>0.0772</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1112,36 +1129,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>513700</t>
+          <t>470888</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+          <t>汇添富香港优势精选混合（QDII）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.69</t>
+          <t>78.50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1447</t>
+          <t>0.0561</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1150,36 +1167,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>159892</t>
+          <t>011339</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+          <t>兴全合远两年持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>96.94</t>
+          <t>84.61</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0914</t>
+          <t>0.0434</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1188,32 +1205,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011651</t>
+          <t>513200</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>招商港股通核心精选股票A</t>
+          <t>易方达中证港股通医药卫生综合ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>95.67</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0827</t>
+          <t>0.0306</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1226,36 +1243,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011339</t>
+          <t>010024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>兴全合远两年持有期混合C</t>
+          <t>广发沪港深新起点股票C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.06</t>
+          <t>85.60</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0795</t>
+          <t>0.0223</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1264,36 +1281,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>470888</t>
+          <t>159776</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>汇添富香港优势精选混合 (QDII)</t>
+          <t>银华中证港股通医药卫生综合ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>72.67</t>
+          <t>92.74</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0595</t>
+          <t>0.0194</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1302,36 +1319,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010024</t>
+          <t>159718</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广发沪港深新起点股票C</t>
+          <t>平安中证港股通医药卫生综合ETF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>90.14</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0513</t>
+          <t>0.0192</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1340,36 +1357,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011652</t>
+          <t>012827</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>招商港股通核心精选股票C</t>
+          <t>工银聚宁9个月持有期混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>26.05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0275</t>
+          <t>0.0086</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1378,36 +1395,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005142</t>
+          <t>010500</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
+          <t>中银创新医疗混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>84.21</t>
+          <t>92.35</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0223</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1416,36 +1433,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005143</t>
+          <t>006603</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
+          <t>嘉实互融精选股票</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>84.21</t>
+          <t>82.85</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0166</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1454,6 +1471,860 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9890</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0899</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7800</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0114</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9917</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8921</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8699</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7724</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5236</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012884</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5236</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3105</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2118</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2117,7 +2988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2629,7 +3500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4129,7 +5000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6123,7 +6994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8027,7 +8898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01801-信达生物.xlsx
+++ b/数据整理/stocks/港股/01801-信达生物.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>6.23</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>13.54</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>4.94</v>
+        <v>13.54</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>11.52</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>32.96</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>33.61</v>
+        <v>32.96</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8" t="n">
-        <v>34.59</v>
+        <v>33.61</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1226 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>49</v>
+      </c>
+      <c r="D9" t="n">
+        <v>34.59</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>30</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>12.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0074</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7950</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根中国生物医药混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1148</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0375</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8618</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6848</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6355</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4761</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4080</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4033</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3321</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3158</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2809</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2625</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>72.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国消费升级混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +1835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,22 +1896,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.00</t>
+          <t>69.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.48</t>
+          <t>99.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0240</t>
+          <t>3.0306</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -721,26 +1934,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.97</t>
+          <t>26.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.60</t>
+          <t>88.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1842</t>
+          <t>1.3282</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +1962,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011338</t>
+          <t>009896</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴全合远两年持有期混合A</t>
+          <t>广发港股通成长精选股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31.13</t>
+          <t>21.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.61</t>
+          <t>89.50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9246</t>
+          <t>0.8803</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -797,26 +2010,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.33</t>
+          <t>14.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.66</t>
+          <t>89.08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5761</t>
+          <t>0.7829</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -835,26 +2048,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16.27</t>
+          <t>20.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.59</t>
+          <t>91.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5662</t>
+          <t>0.7706</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +2076,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010388</t>
+          <t>005777</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达医药生物股票C</t>
+          <t>广发科技动力股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>16.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.59</t>
+          <t>90.78</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1677</t>
+          <t>0.7021</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +2114,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012826</t>
+          <t>007343</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银聚宁9个月持有期混合A</t>
+          <t>嘉实科技创新混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>15.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26.05</t>
+          <t>78.71</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1203</t>
+          <t>0.6962</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +2152,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>513700</t>
+          <t>004450</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华中证港股通医药卫生综合ETF</t>
+          <t>嘉实前沿科技沪港深股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>12.41</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>90.72</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1122</t>
+          <t>0.6503</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +2190,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007718</t>
+          <t>011637</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中银创新医疗混合A</t>
+          <t>广发沪港深价值成长混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>11.91</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.35</t>
+          <t>89.16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1055</t>
+          <t>0.4395</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +2228,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>159892</t>
+          <t>007718</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+          <t>中银创新医疗混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>11.61</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>99.13</t>
+          <t>80.72</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0798</t>
+          <t>0.4005</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1053,32 +2266,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>513120</t>
+          <t>159892</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发中证香港创新药（QDII-ETF）</t>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>98.58</t>
+          <t>99.47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0777</t>
+          <t>0.2573</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1091,36 +2304,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>513280</t>
+          <t>009897</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇添富恒生香港上市生物科技ETF（QDII）</t>
+          <t>广发港股通成长精选股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>100.14</t>
+          <t>89.50</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0772</t>
+          <t>0.2372</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1129,36 +2342,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>470888</t>
+          <t>010388</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇添富香港优势精选混合（QDII）</t>
+          <t>易方达医药生物股票C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>78.50</t>
+          <t>91.88</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0561</t>
+          <t>0.2245</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1167,36 +2380,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011339</t>
+          <t>513700</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>兴全合远两年持有期混合C</t>
+          <t>鹏华中证港股通医药卫生综合ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>84.61</t>
+          <t>95.37</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0434</t>
+          <t>0.1636</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1205,36 +2418,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>513200</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>易方达中证港股通医药卫生综合ETF</t>
+          <t>广发中证香港创新药（QDII-ETF）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>95.67</t>
+          <t>98.69</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0306</t>
+          <t>0.1341</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1243,32 +2456,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010024</t>
+          <t>010500</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广发沪港深新起点股票C</t>
+          <t>中银创新医疗混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>85.60</t>
+          <t>80.72</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0223</t>
+          <t>0.1318</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1281,36 +2494,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>159776</t>
+          <t>014313</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>银华中证港股通医药卫生综合ETF</t>
+          <t>鹏华创新增长一年持有期混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>92.74</t>
+          <t>60.62</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0194</t>
+          <t>0.0812</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1319,32 +2532,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>159718</t>
+          <t>513200</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>平安中证港股通医药卫生综合ETF</t>
+          <t>易方达中证港股通医药卫生综合ETF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>90.14</t>
+          <t>95.67</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0192</t>
+          <t>0.0656</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1357,36 +2570,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>012827</t>
+          <t>513280</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>工银聚宁9个月持有期混合C</t>
+          <t>汇添富恒生香港上市生物科技ETF（QDII）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>26.05</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.0621</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1395,36 +2608,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010500</t>
+          <t>006603</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中银创新医疗混合C</t>
+          <t>嘉实互融精选股票</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.35</t>
+          <t>91.84</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0067</t>
+          <t>0.0601</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1433,36 +2646,262 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006603</t>
+          <t>159776</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>嘉实互融精选股票</t>
+          <t>银华中证港股通医药卫生综合ETF</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>82.85</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.0300</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>850013</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海通品质升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159718</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014314</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华创新增长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>60.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>851399</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海通品质升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1537,22 +2976,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>60.14</t>
+          <t>44.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.78</t>
+          <t>99.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9890</t>
+          <t>2.0240</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1575,22 +3014,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39.96</t>
+          <t>25.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>85.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.0899</t>
+          <t>1.1842</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1613,26 +3052,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36.93</t>
+          <t>31.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.06</t>
+          <t>84.61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7800</t>
+          <t>0.9246</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1641,36 +3080,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009896</t>
+          <t>009993</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发港股通成长精选股票A</t>
+          <t>嘉实前沿创新混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.43</t>
+          <t>14.33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.34</t>
+          <t>89.66</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0114</t>
+          <t>0.5761</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1689,26 +3128,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.07</t>
+          <t>16.27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.95</t>
+          <t>84.59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9917</t>
+          <t>0.5662</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1717,36 +3156,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009993</t>
+          <t>010388</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实前沿创新混合</t>
+          <t>易方达医药生物股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.63</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.75</t>
+          <t>84.59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8921</t>
+          <t>0.1677</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1755,36 +3194,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005777</t>
+          <t>012826</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发科技动力股票</t>
+          <t>工银聚宁9个月持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>26.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.8699</t>
+          <t>0.1203</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1793,36 +3232,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007343</t>
+          <t>513700</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实科技创新混合</t>
+          <t>鹏华中证港股通医药卫生综合ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16.54</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.88</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.7724</t>
+          <t>0.1122</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1831,36 +3270,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>160322</t>
+          <t>007718</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏港股通精选股票(LOF)</t>
+          <t>中银创新医疗混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17.75</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>85.87</t>
+          <t>92.35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.5236</t>
+          <t>0.1055</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1869,36 +3308,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>012884</t>
+          <t>159892</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏港股通精选股票(LOF) C</t>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>17.75</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>85.87</t>
+          <t>99.13</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.5236</t>
+          <t>0.0798</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1907,36 +3346,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009897</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发港股通成长精选股票C</t>
+          <t>广发中证香港创新药（QDII-ETF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>85.34</t>
+          <t>98.58</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3105</t>
+          <t>0.0777</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1945,32 +3384,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010388</t>
+          <t>513280</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>易方达医药生物股票C</t>
+          <t>汇添富恒生香港上市生物科技ETF（QDII）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>86.95</t>
+          <t>100.14</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2118</t>
+          <t>0.0772</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1983,36 +3422,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>513700</t>
+          <t>470888</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+          <t>汇添富香港优势精选混合（QDII）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.69</t>
+          <t>78.50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1447</t>
+          <t>0.0561</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -2021,36 +3460,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>159892</t>
+          <t>011339</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+          <t>兴全合远两年持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>96.94</t>
+          <t>84.61</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0914</t>
+          <t>0.0434</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -2059,32 +3498,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011651</t>
+          <t>513200</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>招商港股通核心精选股票A</t>
+          <t>易方达中证港股通医药卫生综合ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>95.67</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0827</t>
+          <t>0.0306</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -2097,36 +3536,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011339</t>
+          <t>010024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>兴全合远两年持有期混合C</t>
+          <t>广发沪港深新起点股票C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.06</t>
+          <t>85.60</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0795</t>
+          <t>0.0223</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2135,36 +3574,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>470888</t>
+          <t>159776</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>汇添富香港优势精选混合 (QDII)</t>
+          <t>银华中证港股通医药卫生综合ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>72.67</t>
+          <t>92.74</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0595</t>
+          <t>0.0194</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -2173,36 +3612,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010024</t>
+          <t>159718</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广发沪港深新起点股票C</t>
+          <t>平安中证港股通医药卫生综合ETF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>90.14</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0513</t>
+          <t>0.0192</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2211,36 +3650,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011652</t>
+          <t>012827</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>招商港股通核心精选股票C</t>
+          <t>工银聚宁9个月持有期混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>26.05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0275</t>
+          <t>0.0086</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -2249,36 +3688,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005142</t>
+          <t>010500</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
+          <t>中银创新医疗混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>84.21</t>
+          <t>92.35</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0223</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2287,36 +3726,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005143</t>
+          <t>006603</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
+          <t>嘉实互融精选股票</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>84.21</t>
+          <t>82.85</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0166</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2325,6 +3764,860 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9890</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0899</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7800</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0114</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9917</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8921</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8699</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7724</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5236</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012884</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5236</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3105</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2118</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2988,7 +5281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3500,7 +5793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5000,7 +7293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6994,7 +9287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8896,1200 +11189,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009664</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富医疗积极成长一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>65.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.95</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.0074</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007493</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>朱雀产业臻选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>49.86</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7950</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001984</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根中国生物医药混合（QDII）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.64</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>82.19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1148</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010141</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>朱雀企业优选股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>24.82</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.58</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.0375</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007494</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>朱雀产业臻选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>23.94</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>79.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8618</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008294</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>朱雀企业优胜股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>14.57</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.22</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6848</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008075</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商核心优选股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>13.58</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6355</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008418</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>惠升惠泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>15.02</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>72.58</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4761</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010142</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>朱雀企业优选股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>82.58</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4080</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008531</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>惠升惠民混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>10.21</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>80.25</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4033</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008655</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3321</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009665</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇添富医疗积极成长一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>79.95</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3158</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007880</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>朱雀产业智选混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7.78</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>77.63</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2809</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005228</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇添富港股通专注成长混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>86.36</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2625</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006364</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商丰韵混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2521</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008419</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>惠升惠泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>72.58</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1582</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006365</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>招商丰韵混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1458</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008295</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>朱雀企业优胜股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>90.22</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1236</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006796</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>富国消费升级混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.98</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1169</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>470888</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>汇添富香港优势精选混合 (QDII)</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>83.17</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0884</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008532</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>惠升惠民混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>80.25</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0806</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>007881</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>朱雀产业智选混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>77.63</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0632</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008656</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>招商科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0400</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>008076</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>招商核心优选股票C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0304</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>008061</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>惠升惠新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0166</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>501303</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>008062</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>惠升惠新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>004996</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>008972</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>160922</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>